--- a/So sánh năng lực cạnh tranh 4.0 của Việt nam với một số nước xung quanh, năm 2018 .xlsx
+++ b/So sánh năng lực cạnh tranh 4.0 của Việt nam với một số nước xung quanh, năm 2018 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19F3E7C-0888-4B36-BBE8-5B3B0045AC2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BB468B-EA3E-4013-BD98-9BC9EE609634}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{69040B8B-DFB9-439C-899E-C8881781B01C}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,8 +36,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Văn Cat</author>
+  </authors>
+  <commentList>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{A1DF30A3-7795-43F9-9A01-4F03D10E681D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">CMCN 4.0 đang mở ra nhiều cơ hội cho các nước, đặc biệt là các nước đang phát triển như Việt Nam, nâng cao năng suất và rút ngắn khoảng cách phát triển. Trong bối cảnh Việt Nam đang hội nhập sâu rộng vào nền kinh tế thế giới với việc hoàn tất nhiều hiệp định thương mại tự do quy mô lớn như Hiệp định Đối tác toàn diện và tiến bộ xuyên Thái Bình Dương (CPTPP), Hiệp định thương mại tự do (FTA) với Liên minh châu Âu (EU), Liên minh kinh tế Á - Âu..., việc tiếp cận thành tựu cách mạng sản xuất mới để tham gia hiệu quả chuỗi giá trị toàn cầu và đẩy mạnh công nghiệp hóa, hiện đại hóa là nhu cầu cấp thiết. Một quốc gia nghèo có thể phát triển nhanh và tạo nên sự “thần kỳ” nhờ vào hai động lực: Hội nhập quốc tế và nắm bắt CMCN 4.0. Việt Nam đang ở vị trí rất thuận lợi để khai thác và phát huy mạnh mẽ hai động lực này. Với sức mạnh vươn lên, Việt Nam sẽ là quốc gia đi đầu và có những sáng tạo đột phá trong cả hội nhập và nắm bắt CMCN 4.0 trong tương lai.
+ </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Việt Nam</t>
   </si>
@@ -147,20 +171,29 @@
     <t>Count of Tên quốc gia</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Nguồn : WEF) </t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Nhận xét</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -316,18 +349,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -624,6 +645,18 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2891,6 +2924,66 @@
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>So</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> sánh năng lực cạnh tranh của Việt Nam và các nước xung quanh 2018</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -4562,8 +4655,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4618,8 +4712,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4674,8 +4769,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4730,8 +4826,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4786,8 +4883,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4842,8 +4940,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4898,8 +4997,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4954,8 +5054,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5010,8 +5111,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5066,8 +5168,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5122,8 +5225,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5178,8 +5282,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5234,8 +5339,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5290,8 +5396,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5346,8 +5453,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5398,6 +5506,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$2:$A$6</c:f>
@@ -5469,6 +5635,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$2:$A$6</c:f>
@@ -5540,6 +5764,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$2:$A$6</c:f>
@@ -5611,6 +5893,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$2:$A$6</c:f>
@@ -5682,6 +6022,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$2:$A$6</c:f>
@@ -5753,6 +6151,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$2:$A$6</c:f>
@@ -5826,6 +6282,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$2:$A$6</c:f>
@@ -5899,6 +6413,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$2:$A$6</c:f>
@@ -5972,6 +6544,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$2:$A$6</c:f>
@@ -6045,6 +6675,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$2:$A$6</c:f>
@@ -6118,6 +6806,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$2:$A$6</c:f>
@@ -6191,6 +6937,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$2:$A$6</c:f>
@@ -6265,6 +7069,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$2:$A$6</c:f>
@@ -6339,6 +7201,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$2:$A$6</c:f>
@@ -6413,6 +7333,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$2:$A$6</c:f>
@@ -6461,8 +7439,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -6479,8 +7458,75 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nguồn:</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> WEF.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.61726045501164362"/>
+              <c:y val="0.93015299740425006"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -6545,7 +7591,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -6663,6 +7709,7 @@
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -7807,15 +8854,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7843,6 +8890,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="PHẠM ĐÌNH VĂN" id="{02FFE350-A97D-4508-886D-A096FA330A0B}" userId="PHẠM ĐÌNH VĂN" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7984,7 +9037,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52CB72D5-D9AE-49E4-8D4B-6EA50702CFA2}" name="PivotTable5" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Tên quốc gia">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52CB72D5-D9AE-49E4-8D4B-6EA50702CFA2}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Tên quốc gia">
   <location ref="A1:P6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -8383,24 +9436,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CA1EE93A-E841-4573-9EA3-3F70635870F5}" name="Table4" displayName="Table4" ref="A1:O5" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CA1EE93A-E841-4573-9EA3-3F70635870F5}" name="Table4" displayName="Table4" ref="A1:O5" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
   <autoFilter ref="A1:O5" xr:uid="{8F49935A-BB16-44FD-BE73-B858BFF51FBE}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{9C4E9134-20BB-4F94-BB92-D651B1891A8C}" name="Tên quốc gia" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{E4D88AF0-6595-4139-8828-9F52928DF1F1}" name="Xếp hạng chung " dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{FE11139E-FCB1-43F0-8C01-04EACCBA0C83}" name="Thể chế" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{E03FD0DD-E9F6-48BC-A7F3-A8B161433E32}" name="Hạ tầng " dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{E54DE26C-A665-4435-AAA9-AF50321DACA6}" name="Ứng dụng Công nghệ thông tin" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{511F89BD-132B-4C45-B77F-16A96796780E}" name="Ổn định kinh tế vĩ mô" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{D7BC0771-A9DE-410E-9F23-2B8F400FF7E1}" name="Nguồn lực con người" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{349F693D-0F01-48A8-947B-038B9E86E4B0}" name="Sức khỏe" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{C50E7CA2-5C61-47FC-B3EC-C22A257E37F9}" name="Kỹ năng " dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{623888C0-B807-457F-A6A7-69544E94325B}" name="Yếu tố thị trường " dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{0D7B2459-0790-42B4-9AED-8E634CC8D2D3}" name="Thị trường hàng hóa" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{5AA76919-651D-4C93-B596-588CA46E8B8E}" name="Hệ thống tài chính " dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{573FBE93-5262-495E-865B-4C0B80B8C225}" name="Hệ sinh thái sáng tạo " dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{437E4E26-F95E-4E4A-B72E-2213994E5304}" name="Tính năng động" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{69749F70-D286-4445-8A03-BC64F2AF485A}" name="Năng lực sáng tạo" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9C4E9134-20BB-4F94-BB92-D651B1891A8C}" name="Tên quốc gia" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{E4D88AF0-6595-4139-8828-9F52928DF1F1}" name="Xếp hạng chung " dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{FE11139E-FCB1-43F0-8C01-04EACCBA0C83}" name="Thể chế" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{E03FD0DD-E9F6-48BC-A7F3-A8B161433E32}" name="Hạ tầng " dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E54DE26C-A665-4435-AAA9-AF50321DACA6}" name="Ứng dụng Công nghệ thông tin" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{511F89BD-132B-4C45-B77F-16A96796780E}" name="Ổn định kinh tế vĩ mô" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{D7BC0771-A9DE-410E-9F23-2B8F400FF7E1}" name="Nguồn lực con người" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{349F693D-0F01-48A8-947B-038B9E86E4B0}" name="Sức khỏe" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{C50E7CA2-5C61-47FC-B3EC-C22A257E37F9}" name="Kỹ năng " dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{623888C0-B807-457F-A6A7-69544E94325B}" name="Yếu tố thị trường " dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{0D7B2459-0790-42B4-9AED-8E634CC8D2D3}" name="Thị trường hàng hóa" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{5AA76919-651D-4C93-B596-588CA46E8B8E}" name="Hệ thống tài chính " dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{573FBE93-5262-495E-865B-4C0B80B8C225}" name="Hệ sinh thái sáng tạo " dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{437E4E26-F95E-4E4A-B72E-2213994E5304}" name="Tính năng động" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{69749F70-D286-4445-8A03-BC64F2AF485A}" name="Năng lực sáng tạo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8732,7 +9785,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9067,11 +10120,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8F2D66-0137-4583-BB82-9128AD82DB94}">
-  <dimension ref="A1:R23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8F2D66-0137-4583-BB82-9128AD82DB94}">
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9343,16 +10396,95 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/So sánh năng lực cạnh tranh 4.0 của Việt nam với một số nước xung quanh, năm 2018 .xlsx
+++ b/So sánh năng lực cạnh tranh 4.0 của Việt nam với một số nước xung quanh, năm 2018 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BB468B-EA3E-4013-BD98-9BC9EE609634}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24685FF9-6B1E-4A4C-913C-644990235C13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{69040B8B-DFB9-439C-899E-C8881781B01C}"/>
   </bookViews>
@@ -329,28 +329,63 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -361,12 +396,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -379,12 +413,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -397,12 +430,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -415,12 +447,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -433,12 +464,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -451,12 +481,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -469,12 +498,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -487,12 +515,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -505,12 +532,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -523,12 +549,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -541,12 +566,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -559,12 +583,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -577,12 +600,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -595,12 +617,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -611,8 +632,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -620,13 +639,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -646,15 +658,10 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+      <border outline="0">
+        <bottom style="thin">
           <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -2945,13 +2952,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>So</a:t>
+              <a:t>So sánh năng lực cạnh tranh của Việt Nam và các nước xung quanh 2018</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> sánh năng lực cạnh tranh của Việt Nam và các nước xung quanh 2018</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2988,49 +2990,8 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3044,49 +3005,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3100,49 +3020,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3156,49 +3035,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3212,49 +3050,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3268,49 +3065,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3324,49 +3080,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3380,49 +3095,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3436,49 +3110,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3492,49 +3125,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3548,49 +3140,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3604,49 +3155,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="11"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3660,49 +3170,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="12"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3716,49 +3185,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="13"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3772,49 +3200,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="14"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3828,49 +3215,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="15"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3884,49 +3230,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="16"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3940,49 +3245,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="17"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3996,49 +3260,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="18"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4052,49 +3275,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="19"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4108,49 +3290,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="20"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4164,49 +3305,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="21"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4220,49 +3320,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="22"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4276,49 +3335,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="23"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4332,49 +3350,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="24"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4388,49 +3365,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="25"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4444,49 +3380,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="26"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4500,49 +3395,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="27"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4556,49 +3410,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="28"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4622,7 +3435,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4679,7 +3504,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4736,7 +3573,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4793,7 +3642,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4850,7 +3711,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4907,7 +3780,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4964,7 +3849,23 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5021,7 +3922,23 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5078,7 +3995,23 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5135,7 +4068,23 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5192,7 +4141,23 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5249,7 +4214,23 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5306,7 +4287,25 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5363,7 +4362,25 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5420,7 +4437,25 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -7448,6 +6483,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="703021592"/>
         <c:axId val="703022248"/>
       </c:barChart>
@@ -7479,11 +6515,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Nguồn:</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> WEF.</a:t>
+                  <a:t>Nguồn: WEF.</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7526,7 +6558,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -7591,7 +6623,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -8854,15 +7886,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>1127760</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1089660</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9436,24 +8468,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CA1EE93A-E841-4573-9EA3-3F70635870F5}" name="Table4" displayName="Table4" ref="A1:O5" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CA1EE93A-E841-4573-9EA3-3F70635870F5}" name="Table4" displayName="Table4" ref="A1:O5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:O5" xr:uid="{8F49935A-BB16-44FD-BE73-B858BFF51FBE}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{9C4E9134-20BB-4F94-BB92-D651B1891A8C}" name="Tên quốc gia" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{E4D88AF0-6595-4139-8828-9F52928DF1F1}" name="Xếp hạng chung " dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{FE11139E-FCB1-43F0-8C01-04EACCBA0C83}" name="Thể chế" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{E03FD0DD-E9F6-48BC-A7F3-A8B161433E32}" name="Hạ tầng " dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{E54DE26C-A665-4435-AAA9-AF50321DACA6}" name="Ứng dụng Công nghệ thông tin" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{511F89BD-132B-4C45-B77F-16A96796780E}" name="Ổn định kinh tế vĩ mô" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{D7BC0771-A9DE-410E-9F23-2B8F400FF7E1}" name="Nguồn lực con người" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{349F693D-0F01-48A8-947B-038B9E86E4B0}" name="Sức khỏe" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{C50E7CA2-5C61-47FC-B3EC-C22A257E37F9}" name="Kỹ năng " dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{623888C0-B807-457F-A6A7-69544E94325B}" name="Yếu tố thị trường " dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{0D7B2459-0790-42B4-9AED-8E634CC8D2D3}" name="Thị trường hàng hóa" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{5AA76919-651D-4C93-B596-588CA46E8B8E}" name="Hệ thống tài chính " dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{573FBE93-5262-495E-865B-4C0B80B8C225}" name="Hệ sinh thái sáng tạo " dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{437E4E26-F95E-4E4A-B72E-2213994E5304}" name="Tính năng động" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{69749F70-D286-4445-8A03-BC64F2AF485A}" name="Năng lực sáng tạo" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9C4E9134-20BB-4F94-BB92-D651B1891A8C}" name="Tên quốc gia" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{E4D88AF0-6595-4139-8828-9F52928DF1F1}" name="Xếp hạng chung " dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{FE11139E-FCB1-43F0-8C01-04EACCBA0C83}" name="Thể chế" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{E03FD0DD-E9F6-48BC-A7F3-A8B161433E32}" name="Hạ tầng " dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{E54DE26C-A665-4435-AAA9-AF50321DACA6}" name="Ứng dụng Công nghệ thông tin" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{511F89BD-132B-4C45-B77F-16A96796780E}" name="Ổn định kinh tế vĩ mô" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{D7BC0771-A9DE-410E-9F23-2B8F400FF7E1}" name="Nguồn lực con người" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{349F693D-0F01-48A8-947B-038B9E86E4B0}" name="Sức khỏe" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{C50E7CA2-5C61-47FC-B3EC-C22A257E37F9}" name="Kỹ năng " dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{623888C0-B807-457F-A6A7-69544E94325B}" name="Yếu tố thị trường " dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{0D7B2459-0790-42B4-9AED-8E634CC8D2D3}" name="Thị trường hàng hóa" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{5AA76919-651D-4C93-B596-588CA46E8B8E}" name="Hệ thống tài chính " dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{573FBE93-5262-495E-865B-4C0B80B8C225}" name="Hệ sinh thái sáng tạo " dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{437E4E26-F95E-4E4A-B72E-2213994E5304}" name="Tính năng động" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{69749F70-D286-4445-8A03-BC64F2AF485A}" name="Năng lực sáng tạo" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9809,7 +8841,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
@@ -9859,252 +8891,252 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="4">
         <v>45</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="4">
         <v>48</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="4">
         <v>71</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="4">
         <v>50</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="4">
         <v>51</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="4">
         <v>87</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="4">
         <v>95</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="4">
         <v>62</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="4">
         <v>33</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="4">
         <v>51</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="4">
         <v>52</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="4">
         <v>45</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="4">
         <v>30</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="4">
         <v>38</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="4">
         <v>25</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="4">
         <v>24</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="4">
         <v>32</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="4">
         <v>32</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="4">
         <v>38</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="4">
         <v>62</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="4">
         <v>24</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="4">
         <v>13</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="4">
         <v>24</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="4">
         <v>15</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="4">
         <v>26</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="4">
         <v>19</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="4">
         <v>30</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="4">
         <v>38</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="4">
         <v>60</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="4">
         <v>60</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="4">
         <v>64</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="4">
         <v>48</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="4">
         <v>55</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="4">
         <v>42</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="4">
         <v>66</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="4">
         <v>23</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="4">
         <v>92</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="4">
         <v>14</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="4">
         <v>37</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="4">
         <v>23</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="4">
         <v>51</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="4">
         <v>77</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="4">
         <v>94</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="4">
         <v>75</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="4">
         <v>95</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="4">
         <v>64</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="4">
         <v>84</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="4">
         <v>68</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="4">
         <v>97</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="4">
         <v>47</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="4">
         <v>97</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="4">
         <v>59</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="4">
         <v>91</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="4">
         <v>101</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="4">
         <v>82</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="4">
         <v>185</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="4">
         <v>226</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="4">
         <v>238</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="4">
         <v>241</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="4">
         <v>164</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="4">
         <v>264</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="4">
         <v>267</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="4">
         <v>249</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="4">
         <v>116</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="4">
         <v>264</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="4">
         <v>140</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="4">
         <v>199</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="4">
         <v>173</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="4">
         <v>201</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="4">
         <v>4</v>
       </c>
     </row>
@@ -10124,7 +9156,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10147,254 +9179,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="9">
         <v>77</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="9">
         <v>94</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="9">
         <v>75</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="9">
         <v>95</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="9">
         <v>64</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="9">
         <v>84</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="9">
         <v>68</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="9">
         <v>97</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="9">
         <v>47</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="9">
         <v>97</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="9">
         <v>59</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="9">
         <v>91</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="9">
         <v>101</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="10">
         <v>82</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="9">
         <v>38</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="9">
         <v>60</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="9">
         <v>60</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="9">
         <v>64</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="9">
         <v>48</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="9">
         <v>55</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="9">
         <v>42</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="9">
         <v>66</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="9">
         <v>23</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="9">
         <v>92</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="9">
         <v>14</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="9">
         <v>37</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="9">
         <v>23</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="10">
         <v>51</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="9">
         <v>25</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="9">
         <v>24</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="9">
         <v>32</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="9">
         <v>32</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="9">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="9">
         <v>38</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="9">
         <v>62</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="9">
         <v>24</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="9">
         <v>13</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="9">
         <v>24</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="9">
         <v>15</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="9">
         <v>26</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="9">
         <v>19</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="10">
         <v>30</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="12">
         <v>45</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="12">
         <v>48</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="12">
         <v>71</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="12">
         <v>50</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="12">
         <v>51</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="12">
         <v>87</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="12">
         <v>95</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="12">
         <v>62</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="12">
         <v>33</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="12">
         <v>51</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="12">
         <v>52</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="12">
         <v>45</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="12">
         <v>30</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="13">
         <v>38</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -10402,82 +9434,82 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K12" s="10"/>
-      <c r="L12" s="10" t="s">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
